--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t>28秒</t>
+    <t>24秒</t>
   </si>
   <si>
     <t>CPU最大峰值</t>
@@ -404,10 +404,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$D$1:$D$25</c:f>
+              <c:f>详细信息!$D$1:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -469,18 +469,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -566,10 +554,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$C$1:$C$23</c:f>
+              <c:f>详细信息!$C$1:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -625,18 +613,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -722,10 +698,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$E$1:$E$23</c:f>
+              <c:f>详细信息!$E$1:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -781,18 +757,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -878,10 +842,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$F$1:$F$23</c:f>
+              <c:f>详细信息!$F$1:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -937,18 +901,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1066,13 +1018,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1096,13 +1048,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1126,13 +1078,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1156,13 +1108,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1633,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1920,68 +1872,12 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="2">
-        <v>60</v>
-      </c>
       <c r="D20" s="2">
         <v>100</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="2">
-        <v>60</v>
-      </c>
       <c r="D21" s="2">
-        <v>100</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="2">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="2">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2">
-        <v>100</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="D25" s="2">
         <v>100</v>
       </c>
     </row>

--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="性能监控" sheetId="1" r:id="rId1"/>
-    <sheet name="详细信息" sheetId="2" r:id="rId2"/>
+    <sheet name="异常日志" sheetId="2" r:id="rId2"/>
+    <sheet name="详细信息" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">monkey性能监控_SM-J3110 _samsung </t>
   </si>
@@ -48,7 +49,7 @@
 </t>
   </si>
   <si>
-    <t>24秒</t>
+    <t>27秒</t>
   </si>
   <si>
     <t>CPU最大峰值</t>
@@ -97,6 +98,25 @@
   </si>
   <si>
     <t>0KB</t>
+  </si>
+  <si>
+    <t>崩溃统计日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// CRASH: me.drakeet.meizhi.debug (pid 14273)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Short Msg: java.lang.IllegalStateException
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Long Msg: java.lang.IllegalStateException: The ImageView's ScaleType has been changed since attaching a PhotoViewAttacher
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// java.lang.IllegalStateException: The ImageView's ScaleType has been changed since attaching a PhotoViewAttacher
+</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -404,72 +424,81 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$D$1:$D$21</c:f>
+              <c:f>详细信息!$D$1:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,10 +583,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$C$1:$C$19</c:f>
+              <c:f>详细信息!$C$1:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -613,6 +642,15 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -698,10 +736,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$E$1:$E$19</c:f>
+              <c:f>详细信息!$E$1:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -757,6 +795,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -842,10 +889,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$F$1:$F$19</c:f>
+              <c:f>详细信息!$F$1:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -901,6 +948,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1018,13 +1074,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1048,13 +1104,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1078,13 +1134,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1108,13 +1164,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1548,10 +1604,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1585,7 +1641,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1601,22 +1695,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
@@ -1624,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1638,7 +1732,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1652,7 +1746,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1666,7 +1760,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1680,7 +1774,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1694,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1708,7 +1802,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1722,7 +1816,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1736,7 +1830,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1750,7 +1844,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1764,7 +1858,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1778,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1792,7 +1886,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1806,7 +1900,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1820,7 +1914,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1834,7 +1928,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1848,7 +1942,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1862,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1872,13 +1966,55 @@
       </c>
     </row>
     <row r="20" spans="3:6">
+      <c r="C20" s="2">
+        <v>60</v>
+      </c>
       <c r="D20" s="2">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:6">
+      <c r="C21" s="2">
+        <v>60</v>
+      </c>
       <c r="D21" s="2">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="2">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="D23" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
